--- a/SIM_CALC/HVAMP_32_Power_Budget.xlsx
+++ b/SIM_CALC/HVAMP_32_Power_Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\HVAMP_32\SIM_CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BC910-542D-429A-AA48-753A4EC2F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C95AA-30AD-43E1-9183-4A9E760C8386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="A1:I18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,27 +606,27 @@
         <v>4</v>
       </c>
       <c r="B12" s="1">
-        <f>SUM(B2:B11)</f>
+        <f t="shared" ref="B12:G12" si="0">SUM(B2:B11)</f>
         <v>222</v>
       </c>
       <c r="C12" s="1">
-        <f>SUM(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <f>SUM(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>122.6</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>122.6</v>
       </c>
       <c r="F12" s="1">
-        <f>SUM(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>SUM(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -728,8 +728,8 @@
         <v>4190.04</v>
       </c>
       <c r="I18" s="1">
-        <f ca="1">SUM(B18:N18)+I17</f>
-        <v>12370.080000000002</v>
+        <f>SUM(B18:H18)</f>
+        <v>11164.08</v>
       </c>
     </row>
   </sheetData>
